--- a/data_output/prism_passive/all_passive_out_length_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>183.53081307401436</v>
+        <v>183.53081310611296</v>
       </c>
       <c r="C2">
-        <v>184.09739802849433</v>
+        <v>184.09739805874375</v>
       </c>
       <c r="D2">
-        <v>171.28734224516057</v>
+        <v>171.28734228503748</v>
       </c>
       <c r="E2">
-        <v>217.77587765293376</v>
+        <v>217.77587771132198</v>
       </c>
       <c r="F2">
-        <v>202.89675076994391</v>
+        <v>202.8967507968641</v>
       </c>
       <c r="G2">
-        <v>187.09729517133891</v>
+        <v>187.0972952326496</v>
       </c>
       <c r="H2">
-        <v>185.66903651455394</v>
+        <v>185.66903656681941</v>
       </c>
       <c r="I2">
-        <v>183.18762174958724</v>
+        <v>183.1876217903131</v>
       </c>
       <c r="J2">
-        <v>173.75996471146254</v>
+        <v>173.75996474748948</v>
       </c>
       <c r="K2">
-        <v>169.90179926879605</v>
+        <v>169.90179927580817</v>
       </c>
       <c r="L2">
-        <v>191.1254411313347</v>
+        <v>191.12544117962449</v>
       </c>
       <c r="M2">
-        <v>175.41229139233067</v>
+        <v>175.41229144800224</v>
       </c>
       <c r="N2">
-        <v>235.4032651652291</v>
+        <v>235.40326523881654</v>
       </c>
       <c r="O2">
-        <v>172.52389041879189</v>
+        <v>172.52389046390363</v>
       </c>
       <c r="P2">
-        <v>207.60246690955145</v>
+        <v>207.60246695441649</v>
       </c>
       <c r="Q2">
-        <v>190.40899036418728</v>
+        <v>190.40899041866675</v>
       </c>
       <c r="R2">
-        <v>223.70860608683509</v>
+        <v>223.70860614204946</v>
       </c>
       <c r="S2">
-        <v>195.44012977791434</v>
+        <v>195.44012980420297</v>
       </c>
       <c r="T2">
-        <v>200.45293798923831</v>
+        <v>200.45293804391576</v>
       </c>
       <c r="U2">
-        <v>164.78653521772486</v>
+        <v>164.78653524145633</v>
       </c>
       <c r="V2">
-        <v>197.04086164682562</v>
+        <v>197.04086166623634</v>
       </c>
       <c r="W2">
-        <v>224.69460413386497</v>
+        <v>224.69460420790512</v>
       </c>
       <c r="X2">
-        <v>158.02258187897652</v>
+        <v>158.02258194420452</v>
       </c>
       <c r="Y2">
-        <v>179.02144600491422</v>
+        <v>179.02144603165095</v>
       </c>
       <c r="Z2">
-        <v>162.84553961968371</v>
+        <v>162.84553964235826</v>
       </c>
       <c r="AA2">
-        <v>176.39412853820633</v>
+        <v>176.39412862977537</v>
       </c>
       <c r="AB2">
-        <v>173.47449459626515</v>
+        <v>173.47449463526033</v>
       </c>
       <c r="AC2">
-        <v>152.33033763332094</v>
+        <v>152.33033766542317</v>
       </c>
       <c r="AD2">
-        <v>191.8646174038378</v>
+        <v>191.86461744580433</v>
       </c>
       <c r="AE2">
-        <v>173.70467350266404</v>
+        <v>173.70467352644738</v>
       </c>
       <c r="AF2">
-        <v>178.04249302293678</v>
+        <v>178.04249304807047</v>
       </c>
       <c r="AG2">
-        <v>189.93809096909004</v>
+        <v>189.93809099479859</v>
       </c>
       <c r="AH2">
-        <v>180.22622696676089</v>
+        <v>180.22622699366781</v>
       </c>
       <c r="AI2">
-        <v>193.565072737734</v>
+        <v>193.56507275215148</v>
       </c>
       <c r="AJ2">
-        <v>179.85922155322632</v>
+        <v>179.85922159142359</v>
       </c>
       <c r="AK2">
-        <v>188.17796421178545</v>
+        <v>188.17796425462689</v>
       </c>
       <c r="AL2">
-        <v>172.60100308750896</v>
+        <v>172.60100311981492</v>
       </c>
       <c r="AM2">
-        <v>235.9996294948983</v>
+        <v>235.99962954648203</v>
       </c>
       <c r="AN2">
-        <v>174.11376056305204</v>
+        <v>174.11376059760292</v>
       </c>
       <c r="AO2">
-        <v>196.26445194457901</v>
+        <v>196.26445200249634</v>
       </c>
       <c r="AP2">
-        <v>194.69747786189683</v>
+        <v>194.69747790382763</v>
       </c>
       <c r="AQ2">
-        <v>221.86949835450369</v>
+        <v>221.86949841826072</v>
       </c>
       <c r="AR2">
-        <v>190.49668102364797</v>
+        <v>190.49668103642742</v>
       </c>
       <c r="AS2">
-        <v>203.78580005308777</v>
+        <v>203.78580009521087</v>
       </c>
       <c r="AT2">
-        <v>166.46983234927106</v>
+        <v>166.46983238796614</v>
       </c>
       <c r="AU2">
-        <v>200.21200330675799</v>
+        <v>200.21200333055424</v>
       </c>
       <c r="AV2">
-        <v>220.68988530686556</v>
+        <v>220.68988538641381</v>
       </c>
       <c r="AW2">
-        <v>155.30439642739864</v>
+        <v>155.30439648161533</v>
       </c>
       <c r="AX2">
-        <v>187.20761097113649</v>
+        <v>187.20761100773188</v>
       </c>
       <c r="AY2">
-        <v>171.70305191131754</v>
+        <v>171.70305193411443</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>181.34680411710781</v>
+        <v>181.34680411029225</v>
       </c>
       <c r="C3">
-        <v>172.519390272165</v>
+        <v>172.51939028836475</v>
       </c>
       <c r="D3">
-        <v>142.70167824947774</v>
+        <v>142.70167830416182</v>
       </c>
       <c r="E3">
-        <v>216.38006955358901</v>
+        <v>216.38006955953176</v>
       </c>
       <c r="F3">
-        <v>187.32233959224587</v>
+        <v>187.32233961680731</v>
       </c>
       <c r="G3">
-        <v>179.72318776258518</v>
+        <v>179.72318777539499</v>
       </c>
       <c r="H3">
-        <v>185.83711934140487</v>
+        <v>185.8371194188791</v>
       </c>
       <c r="I3">
-        <v>177.32173893336508</v>
+        <v>177.32173891669797</v>
       </c>
       <c r="J3">
-        <v>175.77184026096154</v>
+        <v>175.77184027330441</v>
       </c>
       <c r="K3">
-        <v>183.788034150757</v>
+        <v>183.78803418893341</v>
       </c>
       <c r="L3">
-        <v>183.08674223682573</v>
+        <v>183.0867422805278</v>
       </c>
       <c r="M3">
-        <v>181.58100705040755</v>
+        <v>181.58086157678153</v>
       </c>
       <c r="N3">
-        <v>217.36520248127829</v>
+        <v>217.36520251781573</v>
       </c>
       <c r="O3">
-        <v>171.82536392823732</v>
+        <v>171.82536395782364</v>
       </c>
       <c r="P3">
-        <v>181.45348629918263</v>
+        <v>181.45348635305461</v>
       </c>
       <c r="Q3">
-        <v>188.03632670446987</v>
+        <v>188.03632675016297</v>
       </c>
       <c r="R3">
-        <v>226.60467204143112</v>
+        <v>226.60467210110875</v>
       </c>
       <c r="S3">
-        <v>188.55967871614573</v>
+        <v>188.55967873532859</v>
       </c>
       <c r="T3">
-        <v>224.85979841323928</v>
+        <v>224.85979844563815</v>
       </c>
       <c r="U3">
-        <v>167.02338507133814</v>
+        <v>167.02338509879974</v>
       </c>
       <c r="V3">
-        <v>211.23829622661324</v>
+        <v>211.23829625152422</v>
       </c>
       <c r="W3">
-        <v>192.34453378822059</v>
+        <v>192.34453383460593</v>
       </c>
       <c r="X3">
-        <v>164.17477280085546</v>
+        <v>164.17477282694463</v>
       </c>
       <c r="Y3">
-        <v>175.47005322903848</v>
+        <v>175.47005327726288</v>
       </c>
       <c r="Z3">
-        <v>166.72711863026618</v>
+        <v>166.72711866023937</v>
       </c>
       <c r="AA3">
-        <v>167.30089744112107</v>
+        <v>167.30089754611276</v>
       </c>
       <c r="AB3">
-        <v>177.34758938149272</v>
+        <v>177.34758942897065</v>
       </c>
       <c r="AC3">
-        <v>140.37698516294739</v>
+        <v>140.37698520839621</v>
       </c>
       <c r="AD3">
-        <v>217.71823475145362</v>
+        <v>217.71823483672139</v>
       </c>
       <c r="AE3">
-        <v>177.0393460220796</v>
+        <v>177.03934604862113</v>
       </c>
       <c r="AF3">
-        <v>176.26512386919831</v>
+        <v>176.26512388979813</v>
       </c>
       <c r="AG3">
-        <v>181.55953049104875</v>
+        <v>181.55953054233177</v>
       </c>
       <c r="AH3">
-        <v>179.64147963600027</v>
+        <v>179.64147967237301</v>
       </c>
       <c r="AI3">
-        <v>167.73256196717728</v>
+        <v>167.73256201404385</v>
       </c>
       <c r="AJ3">
-        <v>178.07372921631347</v>
+        <v>178.07372925744903</v>
       </c>
       <c r="AK3">
-        <v>184.28868409244862</v>
+        <v>184.28868412306181</v>
       </c>
       <c r="AL3">
-        <v>172.8638976401889</v>
+        <v>172.86389768636477</v>
       </c>
       <c r="AM3">
-        <v>211.33599441714395</v>
+        <v>211.33599447667382</v>
       </c>
       <c r="AN3">
-        <v>177.64809921750259</v>
+        <v>177.64809922808044</v>
       </c>
       <c r="AO3">
-        <v>228.43171993398153</v>
+        <v>228.43171998218091</v>
       </c>
       <c r="AP3">
-        <v>188.3178133590755</v>
+        <v>188.31781340744493</v>
       </c>
       <c r="AQ3">
-        <v>217.48675393315466</v>
+        <v>217.48675398079038</v>
       </c>
       <c r="AR3">
-        <v>181.82529038850018</v>
+        <v>181.8252904037127</v>
       </c>
       <c r="AS3">
-        <v>220.31242093788026</v>
+        <v>220.31242097893571</v>
       </c>
       <c r="AT3">
-        <v>165.71124568636</v>
+        <v>165.71124572176521</v>
       </c>
       <c r="AU3">
-        <v>215.02187987592532</v>
+        <v>215.02187990188472</v>
       </c>
       <c r="AV3">
-        <v>194.2942117631093</v>
+        <v>194.2942118490474</v>
       </c>
       <c r="AW3">
-        <v>158.40499246350322</v>
+        <v>158.40499249889558</v>
       </c>
       <c r="AX3">
-        <v>152.37332717171631</v>
+        <v>152.3733272186787</v>
       </c>
       <c r="AY3">
-        <v>169.62695433891375</v>
+        <v>169.62695437027253</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>183.53081310611296</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>184.09739805874375</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>171.28734228503748</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>217.77587771132198</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>202.8967507968641</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>187.0972952326496</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>185.66903656681941</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>183.1876217903131</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>173.75996474748948</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>169.90179927580817</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>191.12544117962449</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>175.41229144800224</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>235.40326523881654</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>172.52389046390363</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>207.60246695441649</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>190.40899041866675</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>223.70860614204946</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>195.44012980420297</v>
@@ -588,55 +477,55 @@
         <v>162.84553964235826</v>
       </c>
       <c r="AA2">
-        <v>176.39412862977537</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>173.47449463526033</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>152.33033766542317</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>191.86461744580433</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>173.70467352644738</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>178.04249304807047</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>189.93809099479859</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>180.22622699366781</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>193.56507275215148</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>179.85922159142359</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>188.17796425462689</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>172.60100311981492</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>235.99962954648203</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>174.11376059760292</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>196.26445200249634</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>194.69747790382763</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>221.86949841826072</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>190.49668103642742</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>181.34680411029225</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>172.51939028836475</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>142.70167830416182</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>216.38006955953176</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>187.32233961680731</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>179.72318777539499</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>185.8371194188791</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>177.32173891669797</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>175.77184027330441</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>183.78803418893341</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>183.0867422805278</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>181.58086157678153</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>217.36520251781573</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>171.82536395782364</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>181.45348635305461</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>188.03632675016297</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>226.60467210110875</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>188.55967873532859</v>
@@ -743,55 +629,55 @@
         <v>166.72711866023937</v>
       </c>
       <c r="AA3">
-        <v>167.30089754611276</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>177.34758942897065</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>140.37698520839621</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>217.71823483672139</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>177.03934604862113</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>176.26512388979813</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>181.55953054233177</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>179.64147967237301</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>167.73256201404385</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>178.07372925744903</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>184.28868412306181</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>172.86389768636477</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>211.33599447667382</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>177.64809922808044</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>228.43171998218091</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>188.31781340744493</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>217.48675398079038</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>181.8252904037127</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>183.53081307401436</v>
+        <v>172.52389046390363</v>
       </c>
       <c r="C2">
-        <v>184.09739802849433</v>
+        <v>223.70860614204946</v>
       </c>
       <c r="D2">
-        <v>171.28734224516057</v>
+        <v>174.11376059760292</v>
       </c>
       <c r="E2">
-        <v>217.77587765293376</v>
+        <v>221.86949841826072</v>
       </c>
       <c r="F2">
         <v>202.89675076994391</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>181.34680411710781</v>
+        <v>171.82536395782364</v>
       </c>
       <c r="C3">
-        <v>172.519390272165</v>
+        <v>226.60467210110875</v>
       </c>
       <c r="D3">
-        <v>142.70167824947774</v>
+        <v>177.64809922808044</v>
       </c>
       <c r="E3">
-        <v>216.38006955358901</v>
+        <v>217.48874091687628</v>
       </c>
       <c r="F3">
         <v>187.32233959224587</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>183.53081307401436</v>
+        <v>237.11241462348252</v>
       </c>
       <c r="C2">
-        <v>184.09739802849433</v>
+        <v>173.28826462944508</v>
       </c>
       <c r="D2">
-        <v>171.28734224516057</v>
+        <v>238.09668928220884</v>
       </c>
       <c r="E2">
-        <v>217.77587765293376</v>
+        <v>175.68100970774961</v>
       </c>
       <c r="F2">
         <v>202.89675076994391</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>181.34680411710781</v>
+        <v>217.36520251781573</v>
       </c>
       <c r="C3">
-        <v>172.519390272165</v>
+        <v>171.82536395782364</v>
       </c>
       <c r="D3">
-        <v>142.70167824947774</v>
+        <v>211.33599447667382</v>
       </c>
       <c r="E3">
-        <v>216.38006955358901</v>
+        <v>177.64809922808044</v>
       </c>
       <c r="F3">
         <v>187.32233959224587</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>184.61231380602356</v>
+      </c>
+      <c r="C2">
+        <v>184.09739805874375</v>
+      </c>
+      <c r="D2">
+        <v>177.26397066609169</v>
+      </c>
+      <c r="E2">
+        <v>227.46882056678945</v>
+      </c>
+      <c r="F2">
+        <v>202.8967507968641</v>
+      </c>
+      <c r="G2">
+        <v>187.0972952326496</v>
+      </c>
+      <c r="H2">
+        <v>186.70160782744705</v>
+      </c>
+      <c r="I2">
+        <v>186.62220795883087</v>
+      </c>
+      <c r="J2">
+        <v>174.40905177146314</v>
+      </c>
+      <c r="K2">
+        <v>173.82504382397684</v>
+      </c>
+      <c r="L2">
+        <v>196.34857836077063</v>
+      </c>
+      <c r="M2">
+        <v>175.41229144800224</v>
+      </c>
+      <c r="N2">
         <v>237.11241462348252</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>173.28826462944508</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>207.60246695441649</v>
+      </c>
+      <c r="Q2">
+        <v>190.40899041866675</v>
+      </c>
+      <c r="R2">
+        <v>223.70860614204946</v>
+      </c>
+      <c r="S2">
+        <v>197.91817008896922</v>
+      </c>
+      <c r="T2">
+        <v>200.45293804391576</v>
+      </c>
+      <c r="U2">
+        <v>166.0089623606867</v>
+      </c>
+      <c r="V2">
+        <v>202.18880982182239</v>
+      </c>
+      <c r="W2">
+        <v>228.90861031352904</v>
+      </c>
+      <c r="X2">
+        <v>161.05783850469786</v>
+      </c>
+      <c r="Y2">
+        <v>179.65714924252538</v>
+      </c>
+      <c r="Z2">
+        <v>162.84553964235826</v>
+      </c>
+      <c r="AA2">
+        <v>177.2285773548009</v>
+      </c>
+      <c r="AB2">
+        <v>173.47449463526033</v>
+      </c>
+      <c r="AC2">
+        <v>159.90390888541376</v>
+      </c>
+      <c r="AD2">
+        <v>201.48677079657105</v>
+      </c>
+      <c r="AE2">
+        <v>173.70467352644738</v>
+      </c>
+      <c r="AF2">
+        <v>178.04249304807047</v>
+      </c>
+      <c r="AG2">
+        <v>190.79483460982971</v>
+      </c>
+      <c r="AH2">
+        <v>182.79160505551408</v>
+      </c>
+      <c r="AI2">
+        <v>194.28843343143717</v>
+      </c>
+      <c r="AJ2">
+        <v>183.30715910543526</v>
+      </c>
+      <c r="AK2">
+        <v>193.03754415758934</v>
+      </c>
+      <c r="AL2">
+        <v>172.60100311981492</v>
+      </c>
+      <c r="AM2">
         <v>238.09668928220884</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>175.68100970774961</v>
       </c>
-      <c r="F2">
-        <v>202.89675076994391</v>
-      </c>
-      <c r="G2">
-        <v>187.09729517133891</v>
-      </c>
-      <c r="H2">
-        <v>185.66903651455394</v>
-      </c>
-      <c r="I2">
-        <v>183.18762174958724</v>
-      </c>
-      <c r="J2">
-        <v>173.75996471146254</v>
-      </c>
-      <c r="K2">
-        <v>169.90179926879605</v>
-      </c>
-      <c r="L2">
-        <v>191.1254411313347</v>
-      </c>
-      <c r="M2">
-        <v>175.41229139233067</v>
-      </c>
-      <c r="N2">
-        <v>235.4032651652291</v>
-      </c>
-      <c r="O2">
-        <v>172.52389041879189</v>
-      </c>
-      <c r="P2">
-        <v>207.60246690955145</v>
-      </c>
-      <c r="Q2">
-        <v>190.40899036418728</v>
-      </c>
-      <c r="R2">
-        <v>223.70860608683509</v>
-      </c>
-      <c r="S2">
-        <v>195.44012977791434</v>
-      </c>
-      <c r="T2">
-        <v>200.45293798923831</v>
-      </c>
-      <c r="U2">
-        <v>164.78653521772486</v>
-      </c>
-      <c r="V2">
-        <v>197.04086164682562</v>
-      </c>
-      <c r="W2">
-        <v>224.70459463707883</v>
-      </c>
-      <c r="X2">
-        <v>158.02258187897652</v>
-      </c>
-      <c r="Y2">
-        <v>179.02144600491422</v>
-      </c>
-      <c r="Z2">
-        <v>162.84553961968371</v>
-      </c>
-      <c r="AA2">
-        <v>176.39412853820633</v>
-      </c>
-      <c r="AB2">
-        <v>173.47449459626515</v>
-      </c>
-      <c r="AC2">
-        <v>152.33033763332094</v>
-      </c>
-      <c r="AD2">
-        <v>191.8646174038378</v>
-      </c>
-      <c r="AE2">
-        <v>173.70467350266404</v>
-      </c>
-      <c r="AF2">
-        <v>178.04249302293678</v>
-      </c>
-      <c r="AG2">
-        <v>189.93809096909004</v>
-      </c>
-      <c r="AH2">
-        <v>180.22622696676089</v>
-      </c>
-      <c r="AI2">
-        <v>193.565072737734</v>
-      </c>
-      <c r="AJ2">
-        <v>179.85922155322632</v>
-      </c>
-      <c r="AK2">
-        <v>188.17796421178545</v>
-      </c>
-      <c r="AL2">
-        <v>172.60100308750896</v>
-      </c>
-      <c r="AM2">
-        <v>235.9996294948983</v>
-      </c>
-      <c r="AN2">
-        <v>174.11376056305204</v>
-      </c>
       <c r="AO2">
-        <v>196.26445194457901</v>
+        <v>196.26445200249634</v>
       </c>
       <c r="AP2">
-        <v>194.27312808748653</v>
+        <v>194.27312814892932</v>
       </c>
       <c r="AQ2">
-        <v>221.86949835450369</v>
+        <v>221.86949841826072</v>
       </c>
       <c r="AR2">
-        <v>190.49668102364797</v>
+        <v>192.78186075750418</v>
       </c>
       <c r="AS2">
-        <v>203.78580005308777</v>
+        <v>203.78580009521087</v>
       </c>
       <c r="AT2">
-        <v>166.46983234927106</v>
+        <v>166.85981836809154</v>
       </c>
       <c r="AU2">
-        <v>200.21200330675799</v>
+        <v>204.56318343408822</v>
       </c>
       <c r="AV2">
-        <v>220.69742842994421</v>
+        <v>225.44511103468889</v>
       </c>
       <c r="AW2">
-        <v>155.30439642739864</v>
+        <v>157.92392805493429</v>
       </c>
       <c r="AX2">
-        <v>187.20761097113649</v>
+        <v>187.68403091544167</v>
       </c>
       <c r="AY2">
-        <v>171.70305191131754</v>
+        <v>171.70305193411443</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>181.34680411029225</v>
+      </c>
+      <c r="C3">
+        <v>178.73908286516894</v>
+      </c>
+      <c r="D3">
+        <v>142.70167830416182</v>
+      </c>
+      <c r="E3">
+        <v>216.38006955953176</v>
+      </c>
+      <c r="F3">
+        <v>190.46511499117736</v>
+      </c>
+      <c r="G3">
+        <v>182.46037796217206</v>
+      </c>
+      <c r="H3">
+        <v>185.8371194188791</v>
+      </c>
+      <c r="I3">
+        <v>177.32173891669797</v>
+      </c>
+      <c r="J3">
+        <v>175.77184027330441</v>
+      </c>
+      <c r="K3">
+        <v>183.78803418893341</v>
+      </c>
+      <c r="L3">
+        <v>183.0867422805278</v>
+      </c>
+      <c r="M3">
+        <v>184.33023443620877</v>
+      </c>
+      <c r="N3">
         <v>217.36520251781573</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>171.82536395782364</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>182.45746622242956</v>
+      </c>
+      <c r="Q3">
+        <v>188.80031376698872</v>
+      </c>
+      <c r="R3">
+        <v>228.23646100857698</v>
+      </c>
+      <c r="S3">
+        <v>188.55967873532859</v>
+      </c>
+      <c r="T3">
+        <v>225.68283587554103</v>
+      </c>
+      <c r="U3">
+        <v>167.02338509879974</v>
+      </c>
+      <c r="V3">
+        <v>211.23829625152422</v>
+      </c>
+      <c r="W3">
+        <v>192.52420891472624</v>
+      </c>
+      <c r="X3">
+        <v>164.17477282694463</v>
+      </c>
+      <c r="Y3">
+        <v>175.47005327726288</v>
+      </c>
+      <c r="Z3">
+        <v>166.76510177585817</v>
+      </c>
+      <c r="AA3">
+        <v>167.30089754611276</v>
+      </c>
+      <c r="AB3">
+        <v>182.29000044297806</v>
+      </c>
+      <c r="AC3">
+        <v>140.37698520839621</v>
+      </c>
+      <c r="AD3">
+        <v>217.71823483672139</v>
+      </c>
+      <c r="AE3">
+        <v>180.16399186782479</v>
+      </c>
+      <c r="AF3">
+        <v>178.30351969279658</v>
+      </c>
+      <c r="AG3">
+        <v>181.55953054233177</v>
+      </c>
+      <c r="AH3">
+        <v>179.88019886776337</v>
+      </c>
+      <c r="AI3">
+        <v>167.73256201404385</v>
+      </c>
+      <c r="AJ3">
+        <v>178.07372925744903</v>
+      </c>
+      <c r="AK3">
+        <v>184.28868412306181</v>
+      </c>
+      <c r="AL3">
+        <v>175.38881870788151</v>
+      </c>
+      <c r="AM3">
         <v>211.33599447667382</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>177.64809922808044</v>
       </c>
-      <c r="F3">
-        <v>187.32233959224587</v>
-      </c>
-      <c r="G3">
-        <v>179.72318776258518</v>
-      </c>
-      <c r="H3">
-        <v>185.83711934140487</v>
-      </c>
-      <c r="I3">
-        <v>177.32173893336508</v>
-      </c>
-      <c r="J3">
-        <v>175.77184026096154</v>
-      </c>
-      <c r="K3">
-        <v>183.788034150757</v>
-      </c>
-      <c r="L3">
-        <v>183.08674223682573</v>
-      </c>
-      <c r="M3">
-        <v>181.58100705040755</v>
-      </c>
-      <c r="N3">
-        <v>217.36520248127829</v>
-      </c>
-      <c r="O3">
-        <v>171.82536392823732</v>
-      </c>
-      <c r="P3">
-        <v>181.45348629918263</v>
-      </c>
-      <c r="Q3">
-        <v>188.03632670446987</v>
-      </c>
-      <c r="R3">
-        <v>226.60467204143112</v>
-      </c>
-      <c r="S3">
-        <v>188.55967871614573</v>
-      </c>
-      <c r="T3">
-        <v>224.85979841323928</v>
-      </c>
-      <c r="U3">
-        <v>167.02338507133814</v>
-      </c>
-      <c r="V3">
-        <v>211.23829622661324</v>
-      </c>
-      <c r="W3">
-        <v>192.52420869282429</v>
-      </c>
-      <c r="X3">
-        <v>164.17477280085546</v>
-      </c>
-      <c r="Y3">
-        <v>175.47005322903848</v>
-      </c>
-      <c r="Z3">
-        <v>166.72711863026618</v>
-      </c>
-      <c r="AA3">
-        <v>167.30089744112107</v>
-      </c>
-      <c r="AB3">
-        <v>177.34758938149272</v>
-      </c>
-      <c r="AC3">
-        <v>140.37698516294739</v>
-      </c>
-      <c r="AD3">
-        <v>217.71823475145362</v>
-      </c>
-      <c r="AE3">
-        <v>177.0393460220796</v>
-      </c>
-      <c r="AF3">
-        <v>176.26512386919831</v>
-      </c>
-      <c r="AG3">
-        <v>181.55953049104875</v>
-      </c>
-      <c r="AH3">
-        <v>179.88019882891328</v>
-      </c>
-      <c r="AI3">
-        <v>167.73256196717728</v>
-      </c>
-      <c r="AJ3">
-        <v>178.07372921631347</v>
-      </c>
-      <c r="AK3">
-        <v>184.28868409244862</v>
-      </c>
-      <c r="AL3">
-        <v>172.8638976401889</v>
-      </c>
-      <c r="AM3">
-        <v>211.33599441714395</v>
-      </c>
-      <c r="AN3">
-        <v>177.64809921750259</v>
-      </c>
       <c r="AO3">
-        <v>228.43171993398153</v>
+        <v>229.08822250712242</v>
       </c>
       <c r="AP3">
-        <v>188.3178133590755</v>
+        <v>189.08392588025959</v>
       </c>
       <c r="AQ3">
-        <v>217.48874086619293</v>
+        <v>219.50334509534949</v>
       </c>
       <c r="AR3">
-        <v>181.82529038850018</v>
+        <v>181.8252904037127</v>
       </c>
       <c r="AS3">
-        <v>220.31242093788026</v>
+        <v>220.928158977007</v>
       </c>
       <c r="AT3">
-        <v>165.71124568636</v>
+        <v>165.71124572176521</v>
       </c>
       <c r="AU3">
-        <v>215.02187987592532</v>
+        <v>215.02187990188472</v>
       </c>
       <c r="AV3">
-        <v>194.29824991282183</v>
+        <v>194.29824999698164</v>
       </c>
       <c r="AW3">
-        <v>158.40499246350322</v>
+        <v>158.40499249889558</v>
       </c>
       <c r="AX3">
-        <v>152.37332717171631</v>
+        <v>152.3733272186787</v>
       </c>
       <c r="AY3">
-        <v>169.62695433891375</v>
+        <v>169.73780564910902</v>
       </c>
     </row>
   </sheetData>
